--- a/1 Descriptive Statistics/Homework/After JulyHistogramsandSkewnessHW.xlsx
+++ b/1 Descriptive Statistics/Homework/After JulyHistogramsandSkewnessHW.xlsx
@@ -9,17 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21510" windowHeight="9450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
     <sheet name="Problem 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Problem 1'!$E$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Problem 1'!$E$8:$E$1132</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Problem 1'!$E$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Problem 1'!$E$8:$E$1132</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Problem 2'!$H$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Problem 2'!$H$8:$H$50</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Problem 2'!$I$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Problem 2'!$I$8:$I$50</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Problem 2'!$H$7</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Problem 2'!$H$8:$H$50</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Problem 2'!$I$7</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Problem 2'!$I$8:$I$50</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Problem 2'!$G$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Problem 2'!$G$8:$G$50</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -140,17 +146,225 @@
     <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{02A9C439-2B42-475E-BAC1-D0D85E32A481}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{1E02581D-89E9-4E5E-B753-E664D7897CFD}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>IQ</cx:v>
+              <cx:v>Gold</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="55" overflow="145">
-              <cx:binSize val="10"/>
+            <cx:binning intervalClosed="r" underflow="-0.20000000000000001" overflow="1.2">
+              <cx:binCount val="7"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Reit
+</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Reit</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{7368AAB4-DFB1-4299-B697-F58CB47CA614}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>REIT</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.10000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Gold</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Gold</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{1D19384F-699F-4D72-8770-09E6E638C733}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Gold</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.10000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Bonds</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Bonds</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C9387115-31D3-48E1-A67E-06455B452F50}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Bonds</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r">
+              <cx:binSize val="0.10000000000000001"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -209,6 +423,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
@@ -717,20 +1051,1544 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -739,7 +2597,7 @@
             <xdr:cNvPr id="2" name="Chart 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A72C60F8-9777-4A5C-97AD-792CB6D25740}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F420612-8671-41EF-AB20-05DA35D2C53C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -766,7 +2624,241 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3676650" y="1133475"/>
+              <a:off x="6124575" y="1171575"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD88562-0E42-4147-8295-42B1B4F8F34C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6115050" y="4114800"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFBAA71-C794-4817-BDB5-56A49B103457}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10991850" y="4124325"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC1DD93-3CAA-4C3A-BBDA-D2A2F3073720}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6115050" y="7096125"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1065,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:E1132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6738,7 +8830,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6746,8 +8837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12D2E44-CCC6-4EFA-8D7E-DBC3C92E619A}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="K1:L1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7413,5 +9504,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>